--- a/mcmaster_excel/Metric_Pan_Head_Combination_Phillips/Slotted_Screws.xlsx
+++ b/mcmaster_excel/Metric_Pan_Head_Combination_Phillips/Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,136 +434,108 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>90604A722</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>$5.37</t>
-        </is>
-      </c>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
@@ -574,7 +546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -614,12 +586,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>90604A723</t>
+          <t>90604A722</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>$5.37</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -632,7 +604,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -672,12 +644,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>90604A724</t>
+          <t>90604A723</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -690,7 +662,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -730,12 +702,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>90604A725</t>
+          <t>90604A724</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -748,7 +720,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -788,12 +760,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>90604A801</t>
+          <t>90604A725</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -806,7 +778,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -846,12 +818,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>90604A802</t>
+          <t>90604A801</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -864,18 +836,54 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>90604A802</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
@@ -886,54 +894,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>90604A735</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
@@ -944,7 +916,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -984,12 +956,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>90604A736</t>
+          <t>90604A735</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1002,7 +974,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1042,12 +1014,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>90604A737</t>
+          <t>90604A736</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1060,7 +1032,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1100,12 +1072,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>90604A803</t>
+          <t>90604A737</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>11.38</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1118,7 +1090,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1153,17 +1125,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>90604A804</t>
+          <t>90604A803</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>11.38</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1176,18 +1148,54 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>90604A804</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
@@ -1198,54 +1206,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>90604A747</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>13.77</t>
-        </is>
-      </c>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
@@ -1256,7 +1228,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1271,7 +1243,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1296,12 +1268,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>90604A748</t>
+          <t>90604A747</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1314,7 +1286,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1329,7 +1301,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1349,17 +1321,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>90604A749</t>
+          <t>90604A748</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1372,7 +1344,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1412,12 +1384,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>90604A805</t>
+          <t>90604A749</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1430,7 +1402,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1470,12 +1442,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>90604A806</t>
+          <t>90604A805</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>11.46</t>
+          <t>10.21</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1488,18 +1460,54 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>90604A806</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1510,54 +1518,18 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>90604A750</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>11.41</t>
-        </is>
-      </c>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1568,7 +1540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1603,17 +1575,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>90604A751</t>
+          <t>90604A750</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1626,52 +1598,52 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>90604A752</t>
+          <t>90604A751</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1684,7 +1656,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1724,16 +1696,74 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>90604A807</t>
+          <t>90604A752</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>90604A807</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
